--- a/assets/excel/2021_5-2-2.xlsx
+++ b/assets/excel/2021_5-2-2.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\IM_Site\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBE8E5-6F20-44F5-B6C0-E558F35AD0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="24">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -86,150 +90,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Braunschweig, Stadt</t>
-  </si>
-  <si>
-    <t>Salzgitter, Stadt</t>
-  </si>
-  <si>
-    <t>Wolfsburg, Stadt</t>
-  </si>
-  <si>
-    <t>Gifhorn</t>
-  </si>
-  <si>
-    <t>Goslar</t>
-  </si>
-  <si>
-    <t>Helmstedt</t>
-  </si>
-  <si>
-    <t>Northeim</t>
-  </si>
-  <si>
-    <t>Peine</t>
-  </si>
-  <si>
-    <t>Wolfenbüttel</t>
-  </si>
-  <si>
-    <t>Göttingen</t>
-  </si>
-  <si>
-    <t>Hannover,Region</t>
-  </si>
-  <si>
-    <t>dav. Hannover,Landeshauptstadt</t>
-  </si>
-  <si>
-    <t>dav. Hannover, Umland</t>
-  </si>
-  <si>
-    <t>Diepholz</t>
-  </si>
-  <si>
-    <t>Hameln-Pyrmont</t>
-  </si>
-  <si>
-    <t>Hildesheim</t>
-  </si>
-  <si>
-    <t>Holzminden</t>
-  </si>
-  <si>
-    <t>Nienburg (Weser)</t>
-  </si>
-  <si>
-    <t>Schaumburg</t>
-  </si>
-  <si>
-    <t>Celle</t>
-  </si>
-  <si>
-    <t>Cuxhaven</t>
-  </si>
-  <si>
-    <t>Harburg</t>
-  </si>
-  <si>
-    <t>Lüchow-Dannenberg</t>
-  </si>
-  <si>
-    <t>Lüneburg</t>
-  </si>
-  <si>
-    <t>Osterholz</t>
-  </si>
-  <si>
-    <t>Rotenburg (Wümme)</t>
-  </si>
-  <si>
-    <t>Heidekreis</t>
-  </si>
-  <si>
-    <t>Stade</t>
-  </si>
-  <si>
-    <t>Uelzen</t>
-  </si>
-  <si>
-    <t>Verden</t>
-  </si>
-  <si>
-    <t>Delmenhorst,Stadt</t>
-  </si>
-  <si>
-    <t>Emden,Stadt</t>
-  </si>
-  <si>
-    <t>Oldenburg(Oldb),Stadt</t>
-  </si>
-  <si>
-    <t>Osnabrück,Stadt</t>
-  </si>
-  <si>
-    <t>Wilhelmshaven,Stadt</t>
-  </si>
-  <si>
-    <t>Ammerland</t>
-  </si>
-  <si>
-    <t>Aurich</t>
-  </si>
-  <si>
-    <t>Cloppenburg</t>
-  </si>
-  <si>
-    <t>Emsland</t>
-  </si>
-  <si>
-    <t>Friesland</t>
-  </si>
-  <si>
-    <t>Grafschaft Bentheim</t>
-  </si>
-  <si>
-    <t>Leer</t>
-  </si>
-  <si>
-    <t>Oldenburg</t>
-  </si>
-  <si>
-    <t>Osnabrück</t>
-  </si>
-  <si>
-    <t>Vechta</t>
-  </si>
-  <si>
-    <t>Wesermarsch</t>
-  </si>
-  <si>
-    <t>Wittmund</t>
-  </si>
-  <si>
-    <t>Niedersachsen</t>
-  </si>
-  <si>
     <t>1) Beschäftigte ohne Angabe der Qualifikation werden nicht aufgeführt; hoch = akademischer Abschluss (Bachelor, Diplom, Magister, Master, Staatsexamen, Promotion); mittel = Abschluss einer anerkannten Berufsausbildung , Meister-/Techniker- oder gleichwertiger Fachschulabschluss; niedrig = ohne abgeschlossene Berufsausbildung</t>
   </si>
   <si>
@@ -251,35 +111,23 @@
     <t>.</t>
   </si>
   <si>
-    <t>Statistische Region Braunschweig</t>
+    <t>Indikator 5.2.2: Sozialversicherungspflichtig beschäftigte Ausländerinnen und Ausländer nach Art der Ausbildung</t>
   </si>
   <si>
-    <t>Statistische Region Lüneburg</t>
-  </si>
-  <si>
-    <t>Statistische Region Hannover</t>
-  </si>
-  <si>
-    <t>Statistische Region Weser-Ems</t>
-  </si>
-  <si>
-    <t>Indikator 5-2-2: Sozialversicherungspflichtig beschäftigte Ausländerinnen und Ausländer nach Art der Ausbildung</t>
-  </si>
-  <si>
-    <t>Tabelle 5-2-2: Sozialversicherungspflichtig Beschäftigte Ausländerinnen und Ausländer am Arbeitsort nach Qualifikation und Kreisen</t>
+    <t>Tabelle 5.2.2: Sozialversicherungspflichtig Beschäftigte Ausländerinnen und Ausländer am Arbeitsort nach Qualifikation und Kreisen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="###\ ###\ ###.0"/>
     <numFmt numFmtId="167" formatCode="###\ ##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,11 +174,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color theme="1"/>
-      <name val="NDSFrutiger 55 Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="NDSFrutiger 55 Roman"/>
     </font>
@@ -488,7 +331,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -624,10 +467,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -647,13 +486,13 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,38 +502,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,11 +544,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard_PT_4_2_1" xfId="1"/>
+    <cellStyle name="Standard_PT_4_2_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,6 +597,564 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>101</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Braunschweig  Stadt</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>102</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Salzgitter  Stadt</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>103</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Wolfsburg  Stadt</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>151</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Gifhorn</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>152</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Göttingen</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>152012</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v xml:space="preserve">   dav. Göttingen  Stadt</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>152999</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v xml:space="preserve">   dav. Göttingen  Umland</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>153</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Goslar</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>154</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Helmstedt</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>155</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Northeim</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>156</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Osterode</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>157</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Peine</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>158</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Wolfenbüttel</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>159</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Göttingen</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>159016</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v xml:space="preserve">   dav. Göttingen  Stadt</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>159999</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v xml:space="preserve">   dav. Göttingen  Umland</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Statistische Region Braunschweig</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>241</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Hannover  Region</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>241001</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>dav. Hannover  Lhst.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>241999</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>dav. Hannover  Umland</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>251</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Diepholz</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>252</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Hameln-Pyrmont</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>254</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Hildesheim</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>254021</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v xml:space="preserve">   dav. Hildesheim  Stadt</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>254999</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v xml:space="preserve">   dav. Hildesheim  Umland</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>255</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Holzminden</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>256</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Nienburg (Weser)</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>257</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Schaumburg</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Statistische Region Hannover</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>351</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Celle</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>352</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Cuxhaven</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>353</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Harburg</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>354</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Lüchow-Dannenberg</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>354360</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Lüchow-Dannenberg / Uelzen</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>360/ 354</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Uelzen Lüchow-Dannenberg</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>355</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Lüneburg</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>356</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Osterholz</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>357</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Rotenburg (Wümme)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>358</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Heidekreis</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>359</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Stade</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>360</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Uelzen</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>361</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Verden</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>3</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Statistische Region Lüneburg</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>401</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Delmenhorst  Stadt</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>402457</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Emden  Stadt / Leer</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>455462</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Friesland / Wittmund</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>402</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Emden  Stadt</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>402 / 457</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Emden  Stadt / Leer</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>402 / 457</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Leer / Emden  Stadt</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>403</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Oldenburg(Oldb)  Stadt</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>404</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>Osnabrück  Stadt</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>405</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>Wilhelmshaven  Stadt</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>451</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>Ammerland</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>452</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>Aurich</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>453</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>Cloppenburg</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>454</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>Emsland</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>455</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>Friesland</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>455 / 462</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>Friesland / Wittmund</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>455 / 462</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>Wittmund / Friesland</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>456</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Grafschaft Bentheim</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>457</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Leer</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>458</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Oldenburg</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>459</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>Osnabrück</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>460</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Vechta</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>461</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>Wesermarsch</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>462</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Wittmund</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>4</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>Statistische Region Weser-Ems</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>0</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>Niedersachsen</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1016,31 +1419,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:BV72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="10" width="12.42578125" customWidth="1"/>
     <col min="18" max="24" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:74" ht="15" customHeight="1">
+    <row r="1" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:74" ht="15" customHeight="1"/>
-    <row r="3" spans="2:74" ht="15" customHeight="1">
+    <row r="2" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1076,9 +1480,9 @@
       <c r="AW3" s="6"/>
       <c r="BA3" s="7"/>
     </row>
-    <row r="4" spans="2:74" ht="15" customHeight="1">
+    <row r="4" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1114,7 +1518,7 @@
       <c r="AW4" s="1"/>
       <c r="BA4" s="7"/>
     </row>
-    <row r="5" spans="2:74">
+    <row r="5" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1188,7 +1592,7 @@
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
     </row>
-    <row r="6" spans="2:74">
+    <row r="6" spans="2:74" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1262,223 +1666,223 @@
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
     </row>
-    <row r="7" spans="2:74" ht="8.25" customHeight="1">
-      <c r="B7" s="81" t="s">
+    <row r="7" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="75">
         <v>2020</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="87">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="75">
         <v>2019</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="87">
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="75">
         <v>2018</v>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="77">
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="65">
         <v>2017</v>
       </c>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="77">
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="65">
         <v>2016</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="77">
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="65">
         <v>2015</v>
       </c>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="77">
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="65">
         <v>2014</v>
       </c>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="77">
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="65">
         <v>2013</v>
       </c>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="77">
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="65">
         <v>2011</v>
       </c>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="78"/>
-      <c r="BN7" s="79"/>
-      <c r="BO7" s="80">
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="66"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="68">
         <v>2010</v>
       </c>
-      <c r="BP7" s="80"/>
-      <c r="BQ7" s="80"/>
-      <c r="BR7" s="80"/>
-      <c r="BS7" s="80"/>
-      <c r="BT7" s="80"/>
-      <c r="BU7" s="77"/>
+      <c r="BP7" s="68"/>
+      <c r="BQ7" s="68"/>
+      <c r="BR7" s="68"/>
+      <c r="BS7" s="68"/>
+      <c r="BT7" s="68"/>
+      <c r="BU7" s="65"/>
       <c r="BV7" s="11"/>
     </row>
-    <row r="8" spans="2:74" ht="8.25" customHeight="1">
-      <c r="B8" s="82"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="73" t="s">
+    <row r="8" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="70"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="73" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76" t="s">
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="73" t="s">
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="68" t="s">
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="70" t="s">
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68" t="s">
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="70" t="s">
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="68" t="s">
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="70" t="s">
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="68" t="s">
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="70" t="s">
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="68" t="s">
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="70" t="s">
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BE8" s="71"/>
-      <c r="BF8" s="71"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="68" t="s">
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="84"/>
+      <c r="BH8" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="70" t="s">
+      <c r="BI8" s="85"/>
+      <c r="BJ8" s="85"/>
+      <c r="BK8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BL8" s="71"/>
-      <c r="BM8" s="71"/>
-      <c r="BN8" s="67"/>
-      <c r="BO8" s="72" t="s">
+      <c r="BL8" s="83"/>
+      <c r="BM8" s="83"/>
+      <c r="BN8" s="84"/>
+      <c r="BO8" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="70" t="s">
+      <c r="BP8" s="86"/>
+      <c r="BQ8" s="86"/>
+      <c r="BR8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="BS8" s="71"/>
-      <c r="BT8" s="71"/>
-      <c r="BU8" s="71"/>
+      <c r="BS8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
       <c r="BV8" s="9"/>
     </row>
-    <row r="9" spans="2:74" ht="8.25" customHeight="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+    <row r="9" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="70"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1691,122 +2095,122 @@
       </c>
       <c r="BV9" s="9"/>
     </row>
-    <row r="10" spans="2:74" ht="8.25" customHeight="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="73" t="s">
+    <row r="10" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76" t="s">
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="73"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="73"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="78"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="68" t="s">
+      <c r="Y10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68" t="s">
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="70"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="82"/>
       <c r="AE10" s="16"/>
-      <c r="AF10" s="68" t="s">
+      <c r="AF10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68" t="s">
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="70"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="82"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="68" t="s">
+      <c r="AM10" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68" t="s">
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="70"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="82"/>
       <c r="AS10" s="17"/>
-      <c r="AT10" s="67" t="s">
+      <c r="AT10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="70" t="s">
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="67" t="s">
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="83"/>
+      <c r="BA10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="70" t="s">
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BE10" s="71"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="67" t="s">
+      <c r="BE10" s="83"/>
+      <c r="BF10" s="83"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="68"/>
-      <c r="BK10" s="70" t="s">
+      <c r="BI10" s="85"/>
+      <c r="BJ10" s="85"/>
+      <c r="BK10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="67" t="s">
+      <c r="BL10" s="83"/>
+      <c r="BM10" s="83"/>
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BP10" s="68"/>
-      <c r="BQ10" s="68"/>
-      <c r="BR10" s="70" t="s">
+      <c r="BP10" s="85"/>
+      <c r="BQ10" s="85"/>
+      <c r="BR10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="71"/>
+      <c r="BS10" s="83"/>
+      <c r="BT10" s="83"/>
+      <c r="BU10" s="83"/>
       <c r="BV10" s="9"/>
     </row>
-    <row r="11" spans="2:74" ht="8.25" customHeight="1">
+    <row r="11" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
@@ -2025,12 +2429,13 @@
       </c>
       <c r="BV11" s="9"/>
     </row>
-    <row r="12" spans="2:74" ht="8.25" customHeight="1">
+    <row r="12" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>101</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
+      <c r="C12" s="20" t="str">
+        <f>VLOOKUP(B12,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Braunschweig  Stadt</v>
       </c>
       <c r="D12" s="20">
         <v>11541</v>
@@ -2244,12 +2649,13 @@
       </c>
       <c r="BV12" s="28"/>
     </row>
-    <row r="13" spans="2:74" ht="8.25" customHeight="1">
+    <row r="13" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <v>102</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>16</v>
+      <c r="C13" s="20" t="str">
+        <f>VLOOKUP(B13,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Salzgitter  Stadt</v>
       </c>
       <c r="D13" s="20">
         <v>4878</v>
@@ -2463,12 +2869,13 @@
       </c>
       <c r="BV13" s="9"/>
     </row>
-    <row r="14" spans="2:74" ht="8.25" customHeight="1">
+    <row r="14" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>103</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
+      <c r="C14" s="20" t="str">
+        <f>VLOOKUP(B14,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Wolfsburg  Stadt</v>
       </c>
       <c r="D14" s="20">
         <v>10661</v>
@@ -2682,12 +3089,13 @@
       </c>
       <c r="BV14" s="9"/>
     </row>
-    <row r="15" spans="2:74" ht="8.25" customHeight="1">
+    <row r="15" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
         <v>151</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>18</v>
+      <c r="C15" s="20" t="str">
+        <f>VLOOKUP(B15,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Gifhorn</v>
       </c>
       <c r="D15" s="20">
         <v>3257</v>
@@ -2901,12 +3309,13 @@
       </c>
       <c r="BV15" s="9"/>
     </row>
-    <row r="16" spans="2:74" ht="8.25" customHeight="1">
+    <row r="16" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
         <v>153</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>19</v>
+      <c r="C16" s="20" t="str">
+        <f>VLOOKUP(B16,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Goslar</v>
       </c>
       <c r="D16" s="20">
         <v>3225</v>
@@ -3120,12 +3529,13 @@
       </c>
       <c r="BV16" s="9"/>
     </row>
-    <row r="17" spans="2:74" ht="8.25" customHeight="1">
+    <row r="17" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <v>154</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>20</v>
+      <c r="C17" s="20" t="str">
+        <f>VLOOKUP(B17,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Helmstedt</v>
       </c>
       <c r="D17" s="20">
         <v>1701</v>
@@ -3339,12 +3749,13 @@
       </c>
       <c r="BV17" s="9"/>
     </row>
-    <row r="18" spans="2:74" ht="8.25" customHeight="1">
+    <row r="18" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
         <v>155</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>21</v>
+      <c r="C18" s="20" t="str">
+        <f>VLOOKUP(B18,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Northeim</v>
       </c>
       <c r="D18" s="20">
         <v>3416</v>
@@ -3558,12 +3969,13 @@
       </c>
       <c r="BV18" s="9"/>
     </row>
-    <row r="19" spans="2:74" ht="8.25" customHeight="1">
+    <row r="19" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
         <v>157</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>22</v>
+      <c r="C19" s="20" t="str">
+        <f>VLOOKUP(B19,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Peine</v>
       </c>
       <c r="D19" s="20">
         <v>3368</v>
@@ -3777,12 +4189,13 @@
       </c>
       <c r="BV19" s="9"/>
     </row>
-    <row r="20" spans="2:74" ht="8.25" customHeight="1">
+    <row r="20" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>158</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>23</v>
+      <c r="C20" s="20" t="str">
+        <f>VLOOKUP(B20,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Wolfenbüttel</v>
       </c>
       <c r="D20" s="20">
         <v>1586</v>
@@ -3996,12 +4409,13 @@
       </c>
       <c r="BV20" s="9"/>
     </row>
-    <row r="21" spans="2:74" ht="8.25" customHeight="1">
+    <row r="21" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
         <v>159</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>24</v>
+      <c r="C21" s="20" t="str">
+        <f>VLOOKUP(B21,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Göttingen</v>
       </c>
       <c r="D21" s="20">
         <v>9833</v>
@@ -4215,53 +4629,54 @@
       </c>
       <c r="BV21" s="9"/>
     </row>
-    <row r="22" spans="2:74" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="22" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <v>1</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="C22" s="40" t="str">
+        <f>VLOOKUP(B22,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Statistische Region Braunschweig</v>
+      </c>
+      <c r="D22" s="40">
         <v>53466</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="40">
         <v>35528</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="40">
         <v>17938</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="42">
         <v>20.459731418097483</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="42">
         <v>32.289679422436691</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="42">
         <v>22.524595069763961</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="42">
         <v>24.725994089701867</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="41">
         <v>51596</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="41">
         <v>34403</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="41">
         <v>17193</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="42">
         <v>19.635243042096288</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="42">
         <v>32.159469726335374</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="42">
         <v>22.470734165439183</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="42">
         <v>25.734553066129159</v>
       </c>
       <c r="R22" s="41">
@@ -4432,14 +4847,14 @@
       <c r="BU22" s="46">
         <v>28.794498031921805</v>
       </c>
-      <c r="BV22" s="47"/>
     </row>
-    <row r="23" spans="2:74" ht="8.25" customHeight="1">
+    <row r="23" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
         <v>241</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>25</v>
+      <c r="C23" s="20" t="str">
+        <f>VLOOKUP(B23,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Hannover  Region</v>
       </c>
       <c r="D23" s="20">
         <v>62632</v>
@@ -4564,7 +4979,7 @@
       <c r="AR23" s="30">
         <v>24.683233014029089</v>
       </c>
-      <c r="AS23" s="49">
+      <c r="AS23" s="47">
         <v>29.948239923179617</v>
       </c>
       <c r="AT23" s="35">
@@ -4653,12 +5068,13 @@
       </c>
       <c r="BV23" s="9"/>
     </row>
-    <row r="24" spans="2:74" ht="8.25" customHeight="1">
+    <row r="24" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>241001</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>26</v>
+      <c r="C24" s="20" t="str">
+        <f>VLOOKUP(B24,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>dav. Hannover  Lhst.</v>
       </c>
       <c r="D24" s="20">
         <v>38815</v>
@@ -4783,7 +5199,7 @@
       <c r="AR24" s="30">
         <v>24.248679284889622</v>
       </c>
-      <c r="AS24" s="49">
+      <c r="AS24" s="47">
         <v>28.838820277787491</v>
       </c>
       <c r="AT24" s="35">
@@ -4872,12 +5288,13 @@
       </c>
       <c r="BV24" s="9"/>
     </row>
-    <row r="25" spans="2:74" ht="8.25" customHeight="1">
+    <row r="25" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>241999</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>27</v>
+      <c r="C25" s="20" t="str">
+        <f>VLOOKUP(B25,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>dav. Hannover  Umland</v>
       </c>
       <c r="D25" s="20">
         <v>23817</v>
@@ -5002,7 +5419,7 @@
       <c r="AR25" s="30">
         <v>25.563270511548819</v>
       </c>
-      <c r="AS25" s="49">
+      <c r="AS25" s="47">
         <v>32.194983704123558</v>
       </c>
       <c r="AT25" s="35">
@@ -5091,12 +5508,13 @@
       </c>
       <c r="BV25" s="9"/>
     </row>
-    <row r="26" spans="2:74" ht="8.25" customHeight="1">
+    <row r="26" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>251</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>28</v>
+      <c r="C26" s="20" t="str">
+        <f>VLOOKUP(B26,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Diepholz</v>
       </c>
       <c r="D26" s="20">
         <v>6594</v>
@@ -5221,7 +5639,7 @@
       <c r="AR26" s="30">
         <v>23.618090452261306</v>
       </c>
-      <c r="AS26" s="49">
+      <c r="AS26" s="47">
         <v>36.524728907696378</v>
       </c>
       <c r="AT26" s="35">
@@ -5310,12 +5728,13 @@
       </c>
       <c r="BV26" s="9"/>
     </row>
-    <row r="27" spans="2:74" ht="8.25" customHeight="1">
+    <row r="27" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
         <v>252</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>29</v>
+      <c r="C27" s="20" t="str">
+        <f>VLOOKUP(B27,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Hameln-Pyrmont</v>
       </c>
       <c r="D27" s="20">
         <v>4124</v>
@@ -5440,7 +5859,7 @@
       <c r="AR27" s="30">
         <v>22.469490308686289</v>
       </c>
-      <c r="AS27" s="49">
+      <c r="AS27" s="47">
         <v>27.781765972720741</v>
       </c>
       <c r="AT27" s="35">
@@ -5529,12 +5948,13 @@
       </c>
       <c r="BV27" s="9"/>
     </row>
-    <row r="28" spans="2:74" ht="8.25" customHeight="1">
+    <row r="28" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>254</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>30</v>
+      <c r="C28" s="20" t="str">
+        <f>VLOOKUP(B28,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Hildesheim</v>
       </c>
       <c r="D28" s="20">
         <v>6461</v>
@@ -5659,7 +6079,7 @@
       <c r="AR28" s="30">
         <v>23.952405587170205</v>
       </c>
-      <c r="AS28" s="49">
+      <c r="AS28" s="47">
         <v>22.969477496120021</v>
       </c>
       <c r="AT28" s="35">
@@ -5748,12 +6168,13 @@
       </c>
       <c r="BV28" s="9"/>
     </row>
-    <row r="29" spans="2:74" ht="8.25" customHeight="1">
+    <row r="29" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19">
         <v>255</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>31</v>
+      <c r="C29" s="20" t="str">
+        <f>VLOOKUP(B29,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Holzminden</v>
       </c>
       <c r="D29" s="20">
         <v>1484</v>
@@ -5878,7 +6299,7 @@
       <c r="AR29" s="30">
         <v>31.374853113983548</v>
       </c>
-      <c r="AS29" s="49">
+      <c r="AS29" s="47">
         <v>20.21151586368978</v>
       </c>
       <c r="AT29" s="35">
@@ -5967,12 +6388,13 @@
       </c>
       <c r="BV29" s="9"/>
     </row>
-    <row r="30" spans="2:74" ht="8.25" customHeight="1">
+    <row r="30" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19">
         <v>256</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>32</v>
+      <c r="C30" s="20" t="str">
+        <f>VLOOKUP(B30,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Nienburg (Weser)</v>
       </c>
       <c r="D30" s="20">
         <v>4349</v>
@@ -6097,7 +6519,7 @@
       <c r="AR30" s="30">
         <v>26.104023552502454</v>
       </c>
-      <c r="AS30" s="49">
+      <c r="AS30" s="47">
         <v>38.763493621197256</v>
       </c>
       <c r="AT30" s="35">
@@ -6186,12 +6608,13 @@
       </c>
       <c r="BV30" s="9"/>
     </row>
-    <row r="31" spans="2:74" ht="8.25" customHeight="1">
+    <row r="31" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>257</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>33</v>
+      <c r="C31" s="20" t="str">
+        <f>VLOOKUP(B31,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Schaumburg</v>
       </c>
       <c r="D31" s="20">
         <v>3862</v>
@@ -6405,53 +6828,54 @@
       </c>
       <c r="BV31" s="9"/>
     </row>
-    <row r="32" spans="2:74" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="32" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39">
         <v>2</v>
       </c>
-      <c r="C32" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C32" s="40" t="str">
+        <f>VLOOKUP(B32,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Statistische Region Hannover</v>
+      </c>
+      <c r="D32" s="40">
         <v>89506</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="40">
         <v>56744</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="40">
         <v>32762</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="42">
         <v>12.827073045382432</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="42">
         <v>33.3575402766295</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="42">
         <v>27.471901325050833</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="42">
         <v>26.343485352937233</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="41">
         <v>86601</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="41">
         <v>55379</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="41">
         <v>31222</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="42">
         <v>12.373991062458863</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="42">
         <v>32.894539324026283</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="42">
         <v>27.067816768859483</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="42">
         <v>27.663652844655374</v>
       </c>
       <c r="R32" s="41">
@@ -6622,14 +7046,14 @@
       <c r="BU32" s="46">
         <v>39.030857027422861</v>
       </c>
-      <c r="BV32" s="47"/>
     </row>
-    <row r="33" spans="2:74" ht="8.25" customHeight="1">
+    <row r="33" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19">
         <v>351</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>34</v>
+      <c r="C33" s="20" t="str">
+        <f>VLOOKUP(B33,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Celle</v>
       </c>
       <c r="D33" s="20">
         <v>4092</v>
@@ -6843,12 +7267,13 @@
       </c>
       <c r="BV33" s="9"/>
     </row>
-    <row r="34" spans="2:74" ht="8.25" customHeight="1">
+    <row r="34" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
         <v>352</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>35</v>
+      <c r="C34" s="20" t="str">
+        <f>VLOOKUP(B34,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Cuxhaven</v>
       </c>
       <c r="D34" s="20">
         <v>4388</v>
@@ -7062,12 +7487,13 @@
       </c>
       <c r="BV34" s="9"/>
     </row>
-    <row r="35" spans="2:74" ht="8.25" customHeight="1">
+    <row r="35" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
         <v>353</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>36</v>
+      <c r="C35" s="20" t="str">
+        <f>VLOOKUP(B35,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Harburg</v>
       </c>
       <c r="D35" s="20">
         <v>9737</v>
@@ -7281,12 +7707,13 @@
       </c>
       <c r="BV35" s="9"/>
     </row>
-    <row r="36" spans="2:74" ht="8.25" customHeight="1">
+    <row r="36" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <v>354</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>37</v>
+      <c r="C36" s="20" t="str">
+        <f>VLOOKUP(B36,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Lüchow-Dannenberg</v>
       </c>
       <c r="D36" s="20">
         <v>750</v>
@@ -7493,19 +7920,20 @@
         <v>32.911392405063289</v>
       </c>
       <c r="BT36" s="36" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BU36" s="31" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BV36" s="9"/>
     </row>
-    <row r="37" spans="2:74" ht="8.25" customHeight="1">
+    <row r="37" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19">
         <v>355</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>38</v>
+      <c r="C37" s="20" t="str">
+        <f>VLOOKUP(B37,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Lüneburg</v>
       </c>
       <c r="D37" s="20">
         <v>3926</v>
@@ -7719,12 +8147,13 @@
       </c>
       <c r="BV37" s="9"/>
     </row>
-    <row r="38" spans="2:74" ht="8.25" customHeight="1">
+    <row r="38" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
         <v>356</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>39</v>
+      <c r="C38" s="20" t="str">
+        <f>VLOOKUP(B38,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Osterholz</v>
       </c>
       <c r="D38" s="20">
         <v>2020</v>
@@ -7938,12 +8367,13 @@
       </c>
       <c r="BV38" s="9"/>
     </row>
-    <row r="39" spans="2:74" ht="8.25" customHeight="1">
+    <row r="39" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19">
         <v>357</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>40</v>
+      <c r="C39" s="20" t="str">
+        <f>VLOOKUP(B39,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Rotenburg (Wümme)</v>
       </c>
       <c r="D39" s="20">
         <v>4630</v>
@@ -8157,12 +8587,13 @@
       </c>
       <c r="BV39" s="9"/>
     </row>
-    <row r="40" spans="2:74" ht="8.25" customHeight="1">
+    <row r="40" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <v>358</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>41</v>
+      <c r="C40" s="20" t="str">
+        <f>VLOOKUP(B40,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Heidekreis</v>
       </c>
       <c r="D40" s="20">
         <v>4303</v>
@@ -8376,12 +8807,13 @@
       </c>
       <c r="BV40" s="9"/>
     </row>
-    <row r="41" spans="2:74" ht="8.25" customHeight="1">
+    <row r="41" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="19">
         <v>359</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>42</v>
+      <c r="C41" s="20" t="str">
+        <f>VLOOKUP(B41,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Stade</v>
       </c>
       <c r="D41" s="20">
         <v>5874</v>
@@ -8595,12 +9027,13 @@
       </c>
       <c r="BV41" s="9"/>
     </row>
-    <row r="42" spans="2:74" ht="8.25" customHeight="1">
+    <row r="42" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="19">
         <v>360</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>43</v>
+      <c r="C42" s="20" t="str">
+        <f>VLOOKUP(B42,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Uelzen</v>
       </c>
       <c r="D42" s="20">
         <v>1682</v>
@@ -8814,12 +9247,13 @@
       </c>
       <c r="BV42" s="9"/>
     </row>
-    <row r="43" spans="2:74" ht="8.25" customHeight="1">
+    <row r="43" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="19">
         <v>361</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>44</v>
+      <c r="C43" s="20" t="str">
+        <f>VLOOKUP(B43,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Verden</v>
       </c>
       <c r="D43" s="20">
         <v>5629</v>
@@ -9033,53 +9467,54 @@
       </c>
       <c r="BV43" s="9"/>
     </row>
-    <row r="44" spans="2:74" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="44" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="39">
         <v>3</v>
       </c>
-      <c r="C44" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="20">
+      <c r="C44" s="40" t="str">
+        <f>VLOOKUP(B44,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Statistische Region Lüneburg</v>
+      </c>
+      <c r="D44" s="40">
         <v>47031</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="40">
         <v>32095</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="40">
         <v>14936</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="42">
         <v>9.3491526865259083</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="42">
         <v>29.712317407667282</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="42">
         <v>26.35708362569369</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="42">
         <v>34.58144628011312</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="41">
         <v>44252</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="41">
         <v>30425</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="41">
         <v>13827</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N44" s="42">
         <v>9.0775558166862513</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="42">
         <v>29.944409292235378</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="42">
         <v>25.601102775015818</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Q44" s="42">
         <v>35.376932116062548</v>
       </c>
       <c r="R44" s="41">
@@ -9250,14 +9685,14 @@
       <c r="BU44" s="46">
         <v>45.769550255132316</v>
       </c>
-      <c r="BV44" s="47"/>
     </row>
-    <row r="45" spans="2:74" ht="8.25" customHeight="1">
+    <row r="45" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19">
         <v>401</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>45</v>
+      <c r="C45" s="20" t="str">
+        <f>VLOOKUP(B45,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Delmenhorst  Stadt</v>
       </c>
       <c r="D45" s="20">
         <v>1864</v>
@@ -9471,12 +9906,13 @@
       </c>
       <c r="BV45" s="9"/>
     </row>
-    <row r="46" spans="2:74" ht="8.25" customHeight="1">
+    <row r="46" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19">
         <v>402</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>46</v>
+      <c r="C46" s="20" t="str">
+        <f>VLOOKUP(B46,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Emden  Stadt</v>
       </c>
       <c r="D46" s="20">
         <v>1823</v>
@@ -9690,12 +10126,13 @@
       </c>
       <c r="BV46" s="9"/>
     </row>
-    <row r="47" spans="2:74" ht="8.25" customHeight="1">
+    <row r="47" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19">
         <v>403</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>47</v>
+      <c r="C47" s="20" t="str">
+        <f>VLOOKUP(B47,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Oldenburg(Oldb)  Stadt</v>
       </c>
       <c r="D47" s="20">
         <v>6162</v>
@@ -9909,12 +10346,13 @@
       </c>
       <c r="BV47" s="9"/>
     </row>
-    <row r="48" spans="2:74" ht="8.25" customHeight="1">
+    <row r="48" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19">
         <v>404</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>48</v>
+      <c r="C48" s="20" t="str">
+        <f>VLOOKUP(B48,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Osnabrück  Stadt</v>
       </c>
       <c r="D48" s="20">
         <v>8847</v>
@@ -10128,12 +10566,13 @@
       </c>
       <c r="BV48" s="9"/>
     </row>
-    <row r="49" spans="2:74" ht="8.25" customHeight="1">
+    <row r="49" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="19">
         <v>405</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>49</v>
+      <c r="C49" s="20" t="str">
+        <f>VLOOKUP(B49,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Wilhelmshaven  Stadt</v>
       </c>
       <c r="D49" s="20">
         <v>1855</v>
@@ -10347,12 +10786,13 @@
       </c>
       <c r="BV49" s="9"/>
     </row>
-    <row r="50" spans="2:74" ht="8.25" customHeight="1">
+    <row r="50" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19">
         <v>451</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>50</v>
+      <c r="C50" s="20" t="str">
+        <f>VLOOKUP(B50,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Ammerland</v>
       </c>
       <c r="D50" s="20">
         <v>4153</v>
@@ -10566,12 +11006,13 @@
       </c>
       <c r="BV50" s="9"/>
     </row>
-    <row r="51" spans="2:74" ht="8.25" customHeight="1">
+    <row r="51" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19">
         <v>452</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>51</v>
+      <c r="C51" s="20" t="str">
+        <f>VLOOKUP(B51,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Aurich</v>
       </c>
       <c r="D51" s="20">
         <v>4164</v>
@@ -10785,12 +11226,13 @@
       </c>
       <c r="BV51" s="9"/>
     </row>
-    <row r="52" spans="2:74" ht="8.25" customHeight="1">
+    <row r="52" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19">
         <v>453</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>52</v>
+      <c r="C52" s="20" t="str">
+        <f>VLOOKUP(B52,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Cloppenburg</v>
       </c>
       <c r="D52" s="20">
         <v>10632</v>
@@ -11004,12 +11446,13 @@
       </c>
       <c r="BV52" s="9"/>
     </row>
-    <row r="53" spans="2:74" ht="8.25" customHeight="1">
+    <row r="53" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19">
         <v>454</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>53</v>
+      <c r="C53" s="20" t="str">
+        <f>VLOOKUP(B53,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Emsland</v>
       </c>
       <c r="D53" s="20">
         <v>14967</v>
@@ -11223,12 +11666,13 @@
       </c>
       <c r="BV53" s="9"/>
     </row>
-    <row r="54" spans="2:74" ht="8.25" customHeight="1">
+    <row r="54" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19">
         <v>455</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>54</v>
+      <c r="C54" s="20" t="str">
+        <f>VLOOKUP(B54,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Friesland</v>
       </c>
       <c r="D54" s="20">
         <v>1524</v>
@@ -11442,12 +11886,13 @@
       </c>
       <c r="BV54" s="9"/>
     </row>
-    <row r="55" spans="2:74" ht="8.25" customHeight="1">
+    <row r="55" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="19">
         <v>456</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>55</v>
+      <c r="C55" s="20" t="str">
+        <f>VLOOKUP(B55,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Grafschaft Bentheim</v>
       </c>
       <c r="D55" s="20">
         <v>5790</v>
@@ -11661,12 +12106,13 @@
       </c>
       <c r="BV55" s="9"/>
     </row>
-    <row r="56" spans="2:74" ht="8.25" customHeight="1">
+    <row r="56" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19">
         <v>457</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>56</v>
+      <c r="C56" s="20" t="str">
+        <f>VLOOKUP(B56,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Leer</v>
       </c>
       <c r="D56" s="20">
         <v>3766</v>
@@ -11880,12 +12326,13 @@
       </c>
       <c r="BV56" s="9"/>
     </row>
-    <row r="57" spans="2:74" ht="8.25" customHeight="1">
+    <row r="57" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19">
         <v>458</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>57</v>
+      <c r="C57" s="20" t="str">
+        <f>VLOOKUP(B57,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Oldenburg</v>
       </c>
       <c r="D57" s="20">
         <v>3842</v>
@@ -12099,12 +12546,13 @@
       </c>
       <c r="BV57" s="9"/>
     </row>
-    <row r="58" spans="2:74" ht="8.25" customHeight="1">
+    <row r="58" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="19">
         <v>459</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>58</v>
+      <c r="C58" s="20" t="str">
+        <f>VLOOKUP(B58,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Osnabrück</v>
       </c>
       <c r="D58" s="20">
         <v>17707</v>
@@ -12318,12 +12766,13 @@
       </c>
       <c r="BV58" s="9"/>
     </row>
-    <row r="59" spans="2:74" ht="8.25" customHeight="1">
+    <row r="59" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19">
         <v>460</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>59</v>
+      <c r="C59" s="20" t="str">
+        <f>VLOOKUP(B59,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Vechta</v>
       </c>
       <c r="D59" s="20">
         <v>11205</v>
@@ -12537,12 +12986,13 @@
       </c>
       <c r="BV59" s="9"/>
     </row>
-    <row r="60" spans="2:74" ht="8.25" customHeight="1">
+    <row r="60" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="19">
         <v>461</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>60</v>
+      <c r="C60" s="20" t="str">
+        <f>VLOOKUP(B60,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Wesermarsch</v>
       </c>
       <c r="D60" s="20">
         <v>2505</v>
@@ -12756,12 +13206,13 @@
       </c>
       <c r="BV60" s="9"/>
     </row>
-    <row r="61" spans="2:74" ht="8.25" customHeight="1">
+    <row r="61" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19">
         <v>462</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>61</v>
+      <c r="C61" s="20" t="str">
+        <f>VLOOKUP(B61,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Wittmund</v>
       </c>
       <c r="D61" s="20">
         <v>924</v>
@@ -12947,10 +13398,10 @@
         <v>17.480719794344473</v>
       </c>
       <c r="BM61" s="36" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BN61" s="36" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BO61" s="35">
         <v>293</v>
@@ -12965,63 +13416,64 @@
         <v>5.4607508532423212</v>
       </c>
       <c r="BS61" s="36" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BT61" s="36" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BU61" s="31" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="BV61" s="9"/>
     </row>
-    <row r="62" spans="2:74" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="62" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39">
         <v>4</v>
       </c>
-      <c r="C62" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="20">
+      <c r="C62" s="40" t="str">
+        <f>VLOOKUP(B62,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Statistische Region Weser-Ems</v>
+      </c>
+      <c r="D62" s="40">
         <v>101730</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="40">
         <v>68487</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="40">
         <v>33243</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="42">
         <v>7.3891674039123165</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="42">
         <v>26.298043841541336</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="42">
         <v>25.946131917821685</v>
       </c>
-      <c r="J62" s="21">
+      <c r="J62" s="42">
         <v>40.366656836724665</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="41">
         <v>98270</v>
       </c>
-      <c r="L62" s="22">
+      <c r="L62" s="41">
         <v>66775</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="41">
         <v>31495</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="42">
         <v>6.9746616464841766</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="42">
         <v>26.165666022183778</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="42">
         <v>25.039177775516436</v>
       </c>
-      <c r="Q62" s="21">
+      <c r="Q62" s="42">
         <v>41.820494555815607</v>
       </c>
       <c r="R62" s="41">
@@ -13192,55 +13644,55 @@
       <c r="BU62" s="46">
         <v>43.002577319587637</v>
       </c>
-      <c r="BV62" s="47"/>
     </row>
-    <row r="63" spans="2:74" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="63" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="39">
         <v>0</v>
       </c>
-      <c r="C63" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="20">
+      <c r="C63" s="40" t="str">
+        <f>VLOOKUP(B63,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
+        <v>Niedersachsen</v>
+      </c>
+      <c r="D63" s="40">
         <v>291733</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="40">
         <v>192854</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="40">
         <v>93737</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="42">
         <v>11.768980540425662</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="42">
         <v>30.112465850623686</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="42">
         <v>25.853434476044878</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J63" s="42">
         <v>32.265119132905774</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="41">
         <v>280719</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L63" s="41">
         <v>186982</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="41">
         <v>93737</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="42">
         <v>11.298843327313078</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O63" s="42">
         <v>29.938835632785811</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="42">
         <v>25.281509267274391</v>
       </c>
-      <c r="Q63" s="21">
+      <c r="Q63" s="42">
         <v>33.480811772626723</v>
       </c>
       <c r="R63" s="41">
@@ -13411,316 +13863,353 @@
       <c r="BU63" s="46">
         <v>39.03268092030919</v>
       </c>
-      <c r="BV63" s="50"/>
+      <c r="BV63" s="48"/>
     </row>
-    <row r="64" spans="2:74" ht="8.25" customHeight="1">
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52"/>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
-      <c r="AM64" s="53"/>
-      <c r="AN64" s="53"/>
-      <c r="AO64" s="53"/>
-      <c r="AP64" s="54"/>
-      <c r="AQ64" s="54"/>
-      <c r="AR64" s="54"/>
-      <c r="AS64" s="54"/>
-      <c r="AT64" s="53"/>
-      <c r="AU64" s="53"/>
-      <c r="AV64" s="53"/>
-      <c r="AW64" s="55"/>
-      <c r="AX64" s="55"/>
-      <c r="AY64" s="55"/>
-      <c r="AZ64" s="55"/>
-      <c r="BA64" s="53"/>
-      <c r="BB64" s="53"/>
-      <c r="BC64" s="53"/>
-      <c r="BD64" s="55"/>
-      <c r="BE64" s="55"/>
-      <c r="BF64" s="55"/>
-      <c r="BG64" s="55"/>
-      <c r="BH64" s="53"/>
-      <c r="BI64" s="53"/>
-      <c r="BJ64" s="53"/>
-      <c r="BK64" s="56"/>
-      <c r="BL64" s="56"/>
-      <c r="BM64" s="56"/>
-      <c r="BN64" s="56"/>
-      <c r="BO64" s="53"/>
-      <c r="BP64" s="53"/>
-      <c r="BQ64" s="53"/>
-      <c r="BR64" s="56"/>
-      <c r="BS64" s="56"/>
-      <c r="BT64" s="56"/>
-      <c r="BU64" s="57"/>
-      <c r="BV64" s="57"/>
+    <row r="64" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="49"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="50"/>
+      <c r="AK64" s="50"/>
+      <c r="AL64" s="50"/>
+      <c r="AM64" s="51"/>
+      <c r="AN64" s="51"/>
+      <c r="AO64" s="51"/>
+      <c r="AP64" s="52"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="52"/>
+      <c r="AS64" s="52"/>
+      <c r="AT64" s="51"/>
+      <c r="AU64" s="51"/>
+      <c r="AV64" s="51"/>
+      <c r="AW64" s="53"/>
+      <c r="AX64" s="53"/>
+      <c r="AY64" s="53"/>
+      <c r="AZ64" s="53"/>
+      <c r="BA64" s="51"/>
+      <c r="BB64" s="51"/>
+      <c r="BC64" s="51"/>
+      <c r="BD64" s="53"/>
+      <c r="BE64" s="53"/>
+      <c r="BF64" s="53"/>
+      <c r="BG64" s="53"/>
+      <c r="BH64" s="51"/>
+      <c r="BI64" s="51"/>
+      <c r="BJ64" s="51"/>
+      <c r="BK64" s="54"/>
+      <c r="BL64" s="54"/>
+      <c r="BM64" s="54"/>
+      <c r="BN64" s="54"/>
+      <c r="BO64" s="51"/>
+      <c r="BP64" s="51"/>
+      <c r="BQ64" s="51"/>
+      <c r="BR64" s="54"/>
+      <c r="BS64" s="54"/>
+      <c r="BT64" s="54"/>
+      <c r="BU64" s="55"/>
+      <c r="BV64" s="55"/>
     </row>
-    <row r="65" spans="3:52" ht="8.25" customHeight="1">
-      <c r="C65" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-      <c r="O65" s="69"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="69"/>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="69"/>
-      <c r="AC65" s="69"/>
-      <c r="AD65" s="69"/>
-      <c r="AE65" s="69"/>
-      <c r="AF65" s="69"/>
-      <c r="AG65" s="69"/>
-      <c r="AH65" s="69"/>
-      <c r="AI65" s="69"/>
-      <c r="AJ65" s="69"/>
-      <c r="AK65" s="69"/>
-      <c r="AL65" s="69"/>
-      <c r="AM65" s="69"/>
-      <c r="AN65" s="69"/>
-      <c r="AO65" s="69"/>
-      <c r="AP65" s="69"/>
-      <c r="AQ65" s="69"/>
-      <c r="AR65" s="69"/>
-      <c r="AS65" s="58"/>
-      <c r="AT65" s="59"/>
-      <c r="AU65" s="60"/>
-      <c r="AV65" s="59"/>
-      <c r="AW65" s="59"/>
-      <c r="AX65" s="59"/>
-      <c r="AY65" s="59"/>
-      <c r="AZ65" s="59"/>
+    <row r="65" spans="3:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="89"/>
+      <c r="V65" s="89"/>
+      <c r="W65" s="89"/>
+      <c r="X65" s="89"/>
+      <c r="Y65" s="89"/>
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="89"/>
+      <c r="AB65" s="89"/>
+      <c r="AC65" s="89"/>
+      <c r="AD65" s="89"/>
+      <c r="AE65" s="89"/>
+      <c r="AF65" s="89"/>
+      <c r="AG65" s="89"/>
+      <c r="AH65" s="89"/>
+      <c r="AI65" s="89"/>
+      <c r="AJ65" s="89"/>
+      <c r="AK65" s="89"/>
+      <c r="AL65" s="89"/>
+      <c r="AM65" s="89"/>
+      <c r="AN65" s="89"/>
+      <c r="AO65" s="89"/>
+      <c r="AP65" s="89"/>
+      <c r="AQ65" s="89"/>
+      <c r="AR65" s="89"/>
+      <c r="AS65" s="56"/>
+      <c r="AT65" s="57"/>
+      <c r="AU65" s="58"/>
+      <c r="AV65" s="57"/>
+      <c r="AW65" s="57"/>
+      <c r="AX65" s="57"/>
+      <c r="AY65" s="57"/>
+      <c r="AZ65" s="57"/>
     </row>
-    <row r="66" spans="3:52" ht="8.25" customHeight="1">
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="61"/>
-      <c r="AC66" s="61"/>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="61"/>
-      <c r="AF66" s="61"/>
-      <c r="AG66" s="61"/>
-      <c r="AH66" s="61"/>
-      <c r="AI66" s="61"/>
-      <c r="AJ66" s="61"/>
-      <c r="AK66" s="61"/>
-      <c r="AL66" s="61"/>
-      <c r="AM66" s="62"/>
-      <c r="AN66" s="59"/>
-      <c r="AO66" s="59"/>
-      <c r="AP66" s="59"/>
-      <c r="AQ66" s="59"/>
-      <c r="AR66" s="59"/>
-      <c r="AS66" s="59"/>
-      <c r="AT66" s="59"/>
-      <c r="AU66" s="60"/>
-      <c r="AV66" s="59"/>
-      <c r="AW66" s="59"/>
-      <c r="AX66" s="59"/>
-      <c r="AY66" s="59"/>
-      <c r="AZ66" s="59"/>
+    <row r="66" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="59"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="59"/>
+      <c r="AE66" s="59"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="59"/>
+      <c r="AH66" s="59"/>
+      <c r="AI66" s="59"/>
+      <c r="AJ66" s="59"/>
+      <c r="AK66" s="59"/>
+      <c r="AL66" s="59"/>
+      <c r="AM66" s="60"/>
+      <c r="AN66" s="57"/>
+      <c r="AO66" s="57"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="57"/>
+      <c r="AR66" s="57"/>
+      <c r="AS66" s="57"/>
+      <c r="AT66" s="57"/>
+      <c r="AU66" s="58"/>
+      <c r="AV66" s="57"/>
+      <c r="AW66" s="57"/>
+      <c r="AX66" s="57"/>
+      <c r="AY66" s="57"/>
+      <c r="AZ66" s="57"/>
     </row>
-    <row r="67" spans="3:52" ht="8.25" customHeight="1">
-      <c r="C67" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="63"/>
-      <c r="Z67" s="63"/>
-      <c r="AA67" s="63"/>
-      <c r="AB67" s="63"/>
-      <c r="AC67" s="63"/>
-      <c r="AD67" s="63"/>
-      <c r="AE67" s="63"/>
-      <c r="AF67" s="63"/>
-      <c r="AG67" s="63"/>
-      <c r="AH67" s="63"/>
-      <c r="AI67" s="63"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="63"/>
-      <c r="AL67" s="63"/>
-      <c r="AM67" s="65"/>
-      <c r="AN67" s="65"/>
-      <c r="AO67" s="65"/>
-      <c r="AP67" s="65"/>
-      <c r="AQ67" s="65"/>
-      <c r="AR67" s="65"/>
-      <c r="AS67" s="65"/>
-      <c r="AT67" s="59"/>
-      <c r="AU67" s="60"/>
-      <c r="AV67" s="59"/>
-      <c r="AW67" s="59"/>
-      <c r="AX67" s="59"/>
-      <c r="AY67" s="59"/>
-      <c r="AZ67" s="59"/>
+    <row r="67" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+      <c r="AJ67" s="61"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="61"/>
+      <c r="AM67" s="63"/>
+      <c r="AN67" s="63"/>
+      <c r="AO67" s="63"/>
+      <c r="AP67" s="63"/>
+      <c r="AQ67" s="63"/>
+      <c r="AR67" s="63"/>
+      <c r="AS67" s="63"/>
+      <c r="AT67" s="57"/>
+      <c r="AU67" s="58"/>
+      <c r="AV67" s="57"/>
+      <c r="AW67" s="57"/>
+      <c r="AX67" s="57"/>
+      <c r="AY67" s="57"/>
+      <c r="AZ67" s="57"/>
     </row>
-    <row r="68" spans="3:52">
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
-      <c r="AB68" s="61"/>
-      <c r="AC68" s="61"/>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="61"/>
-      <c r="AF68" s="61"/>
-      <c r="AG68" s="61"/>
-      <c r="AH68" s="61"/>
-      <c r="AI68" s="61"/>
-      <c r="AJ68" s="61"/>
-      <c r="AK68" s="61"/>
-      <c r="AL68" s="61"/>
-      <c r="AM68" s="62"/>
-      <c r="AN68" s="59"/>
-      <c r="AO68" s="59"/>
-      <c r="AP68" s="59"/>
-      <c r="AQ68" s="59"/>
-      <c r="AR68" s="59"/>
-      <c r="AS68" s="59"/>
-      <c r="AT68" s="59"/>
-      <c r="AU68" s="60"/>
-      <c r="AV68" s="59"/>
-      <c r="AW68" s="59"/>
-      <c r="AX68" s="59"/>
-      <c r="AY68" s="59"/>
-      <c r="AZ68" s="59"/>
+    <row r="68" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="59"/>
+      <c r="AA68" s="59"/>
+      <c r="AB68" s="59"/>
+      <c r="AC68" s="59"/>
+      <c r="AD68" s="59"/>
+      <c r="AE68" s="59"/>
+      <c r="AF68" s="59"/>
+      <c r="AG68" s="59"/>
+      <c r="AH68" s="59"/>
+      <c r="AI68" s="59"/>
+      <c r="AJ68" s="59"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="60"/>
+      <c r="AN68" s="57"/>
+      <c r="AO68" s="57"/>
+      <c r="AP68" s="57"/>
+      <c r="AQ68" s="57"/>
+      <c r="AR68" s="57"/>
+      <c r="AS68" s="57"/>
+      <c r="AT68" s="57"/>
+      <c r="AU68" s="58"/>
+      <c r="AV68" s="57"/>
+      <c r="AW68" s="57"/>
+      <c r="AX68" s="57"/>
+      <c r="AY68" s="57"/>
+      <c r="AZ68" s="57"/>
     </row>
-    <row r="69" spans="3:52" ht="8.25" customHeight="1">
+    <row r="69" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="20" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="70" spans="3:52" ht="8.25" customHeight="1">
+    <row r="70" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="20" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="71" spans="3:52" ht="8.25" customHeight="1">
+    <row r="71" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="20" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="72" spans="3:52" ht="8.25" customHeight="1">
-      <c r="C72" s="66" t="s">
-        <v>68</v>
+    <row r="72" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="64" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BR10:BU10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
     <mergeCell ref="BH7:BN7"/>
     <mergeCell ref="BO7:BU7"/>
     <mergeCell ref="B7:B10"/>
@@ -13737,46 +14226,9 @@
     <mergeCell ref="AF7:AL7"/>
     <mergeCell ref="AM7:AS7"/>
     <mergeCell ref="AT7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="C65:AR65"/>
-    <mergeCell ref="BR10:BU10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AP10:AR10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1"/>
+    <hyperlink ref="C72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/assets/excel/2021_5-2-2.xlsx
+++ b/assets/excel/2021_5-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBE8E5-6F20-44F5-B6C0-E558F35AD0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9300CCBF-8E72-4810-AA43-8EB3E5734C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,6 @@
   </si>
   <si>
     <t>AGS</t>
-  </si>
-  <si>
-    <t>Kreisfreie Stadt
-Landkreis
-(Großstadt, Umland)
-Statistische Region
-Land</t>
   </si>
   <si>
     <t>Sozialversicherungspflichtig
@@ -115,6 +108,14 @@
   </si>
   <si>
     <t>Tabelle 5.2.2: Sozialversicherungspflichtig Beschäftigte Ausländerinnen und Ausländer am Arbeitsort nach Qualifikation und Kreisen</t>
+  </si>
+  <si>
+    <t>Kreisfreie Stadt
+Landkreis
+(Großstadt, Umland)
+Statistische Region
+Land
+Land</t>
   </si>
 </sst>
 </file>
@@ -505,6 +506,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,42 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1444,7 +1445,7 @@
     <row r="2" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1482,7 +1483,7 @@
     </row>
     <row r="4" spans="2:74" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1667,552 +1668,552 @@
       <c r="BV6" s="9"/>
     </row>
     <row r="7" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="75">
+      <c r="C7" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="87">
         <v>2020</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="75">
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="87">
         <v>2019</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="75">
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="87">
         <v>2018</v>
       </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="65">
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="77">
         <v>2017</v>
       </c>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="65">
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="77">
         <v>2016</v>
       </c>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="65">
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="77">
         <v>2015</v>
       </c>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="65">
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="77">
         <v>2014</v>
       </c>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="65">
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="79"/>
+      <c r="BA7" s="77">
         <v>2013</v>
       </c>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="65">
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="77">
         <v>2011</v>
       </c>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="68">
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="79"/>
+      <c r="BO7" s="80">
         <v>2010</v>
       </c>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="68"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="68"/>
-      <c r="BU7" s="65"/>
+      <c r="BP7" s="80"/>
+      <c r="BQ7" s="80"/>
+      <c r="BR7" s="80"/>
+      <c r="BS7" s="80"/>
+      <c r="BT7" s="80"/>
+      <c r="BU7" s="77"/>
       <c r="BV7" s="11"/>
     </row>
-    <row r="8" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="78" t="s">
+    <row r="8" spans="2:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="81" t="s">
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="85" t="s">
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="85" t="s">
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="85" t="s">
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="85" t="s">
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="85" t="s">
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BB8" s="85"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="84"/>
-      <c r="BH8" s="85" t="s">
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI8" s="68"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BI8" s="85"/>
-      <c r="BJ8" s="85"/>
-      <c r="BK8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL8" s="83"/>
-      <c r="BM8" s="83"/>
-      <c r="BN8" s="84"/>
-      <c r="BO8" s="86" t="s">
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BP8" s="86"/>
-      <c r="BQ8" s="86"/>
-      <c r="BR8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS8" s="83"/>
-      <c r="BT8" s="83"/>
-      <c r="BU8" s="83"/>
+      <c r="BS8" s="70"/>
+      <c r="BT8" s="70"/>
+      <c r="BU8" s="70"/>
       <c r="BV8" s="9"/>
     </row>
     <row r="9" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="R9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="Y9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="AA9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="13" t="s">
+      <c r="AB9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AE9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AE9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="AF9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AG9" s="13" t="s">
+      <c r="AH9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AI9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="13" t="s">
+      <c r="AJ9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ9" s="13" t="s">
+      <c r="AK9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AK9" s="13" t="s">
+      <c r="AL9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AL9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="AM9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="13" t="s">
+      <c r="AO9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AO9" s="13" t="s">
+      <c r="AP9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AQ9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AQ9" s="13" t="s">
+      <c r="AR9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AR9" s="13" t="s">
+      <c r="AS9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AS9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="AT9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AU9" s="13" t="s">
+      <c r="AV9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AV9" s="13" t="s">
+      <c r="AW9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AW9" s="13" t="s">
+      <c r="AX9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="AY9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" s="13" t="s">
+      <c r="AZ9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BA9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BB9" s="13" t="s">
+      <c r="BC9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BC9" s="13" t="s">
+      <c r="BD9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BD9" s="13" t="s">
+      <c r="BE9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BE9" s="13" t="s">
+      <c r="BF9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BF9" s="13" t="s">
+      <c r="BG9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BG9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BH9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BI9" s="13" t="s">
+      <c r="BJ9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BJ9" s="13" t="s">
+      <c r="BK9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BK9" s="13" t="s">
+      <c r="BL9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BL9" s="13" t="s">
+      <c r="BM9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="BM9" s="13" t="s">
+      <c r="BN9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BN9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="BO9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BP9" s="13" t="s">
+      <c r="BQ9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="BQ9" s="13" t="s">
+      <c r="BR9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BR9" s="13" t="s">
+      <c r="BS9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="BS9" s="13" t="s">
+      <c r="BT9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="BT9" s="14" t="s">
+      <c r="BU9" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="BU9" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="BV9" s="9"/>
     </row>
     <row r="10" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="78" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81" t="s">
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="78"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="73"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="81" t="s">
+      <c r="R10" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="81"/>
-      <c r="W10" s="78"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="73"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="85" t="s">
+      <c r="Y10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="82"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69"/>
       <c r="AE10" s="16"/>
-      <c r="AF10" s="85" t="s">
+      <c r="AF10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="82"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="69"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="85" t="s">
+      <c r="AM10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="82"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="69"/>
       <c r="AS10" s="17"/>
-      <c r="AT10" s="84" t="s">
+      <c r="AT10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="84" t="s">
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="84" t="s">
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI10" s="68"/>
+      <c r="BJ10" s="68"/>
+      <c r="BK10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="85"/>
-      <c r="BJ10" s="85"/>
-      <c r="BK10" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL10" s="83"/>
-      <c r="BM10" s="83"/>
-      <c r="BN10" s="83"/>
-      <c r="BO10" s="84" t="s">
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="70"/>
+      <c r="BN10" s="70"/>
+      <c r="BO10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP10" s="68"/>
+      <c r="BQ10" s="68"/>
+      <c r="BR10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="BP10" s="85"/>
-      <c r="BQ10" s="85"/>
-      <c r="BR10" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS10" s="83"/>
-      <c r="BT10" s="83"/>
-      <c r="BU10" s="83"/>
+      <c r="BS10" s="70"/>
+      <c r="BT10" s="70"/>
+      <c r="BU10" s="70"/>
       <c r="BV10" s="9"/>
     </row>
     <row r="11" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="18">
         <v>1</v>
@@ -4629,7 +4630,7 @@
       </c>
       <c r="BV21" s="9"/>
     </row>
-    <row r="22" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:74" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <v>1</v>
       </c>
@@ -6828,7 +6829,7 @@
       </c>
       <c r="BV31" s="9"/>
     </row>
-    <row r="32" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:74" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39">
         <v>2</v>
       </c>
@@ -7920,10 +7921,10 @@
         <v>32.911392405063289</v>
       </c>
       <c r="BT36" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BU36" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV36" s="9"/>
     </row>
@@ -9467,7 +9468,7 @@
       </c>
       <c r="BV43" s="9"/>
     </row>
-    <row r="44" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:74" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="39">
         <v>3</v>
       </c>
@@ -13398,10 +13399,10 @@
         <v>17.480719794344473</v>
       </c>
       <c r="BM61" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BN61" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BO61" s="35">
         <v>293</v>
@@ -13416,17 +13417,17 @@
         <v>5.4607508532423212</v>
       </c>
       <c r="BS61" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BT61" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BU61" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BV61" s="9"/>
     </row>
-    <row r="62" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:74" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="39">
         <v>4</v>
       </c>
@@ -13645,7 +13646,7 @@
         <v>43.002577319587637</v>
       </c>
     </row>
-    <row r="63" spans="2:74" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:74" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="39">
         <v>0</v>
       </c>
@@ -13940,50 +13941,50 @@
       <c r="BV64" s="55"/>
     </row>
     <row r="65" spans="3:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="89"/>
-      <c r="V65" s="89"/>
-      <c r="W65" s="89"/>
-      <c r="X65" s="89"/>
-      <c r="Y65" s="89"/>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="89"/>
-      <c r="AB65" s="89"/>
-      <c r="AC65" s="89"/>
-      <c r="AD65" s="89"/>
-      <c r="AE65" s="89"/>
-      <c r="AF65" s="89"/>
-      <c r="AG65" s="89"/>
-      <c r="AH65" s="89"/>
-      <c r="AI65" s="89"/>
-      <c r="AJ65" s="89"/>
-      <c r="AK65" s="89"/>
-      <c r="AL65" s="89"/>
-      <c r="AM65" s="89"/>
-      <c r="AN65" s="89"/>
-      <c r="AO65" s="89"/>
-      <c r="AP65" s="89"/>
-      <c r="AQ65" s="89"/>
-      <c r="AR65" s="89"/>
+      <c r="C65" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
+      <c r="AI65" s="66"/>
+      <c r="AJ65" s="66"/>
+      <c r="AK65" s="66"/>
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="66"/>
+      <c r="AN65" s="66"/>
+      <c r="AO65" s="66"/>
+      <c r="AP65" s="66"/>
+      <c r="AQ65" s="66"/>
+      <c r="AR65" s="66"/>
       <c r="AS65" s="56"/>
       <c r="AT65" s="57"/>
       <c r="AU65" s="58"/>
@@ -14047,7 +14048,7 @@
     </row>
     <row r="67" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
@@ -14153,63 +14154,26 @@
     </row>
     <row r="69" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="3:52" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BR10:BU10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="C65:N65"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
     <mergeCell ref="BH7:BN7"/>
     <mergeCell ref="BO7:BU7"/>
     <mergeCell ref="B7:B10"/>
@@ -14226,6 +14190,43 @@
     <mergeCell ref="AF7:AL7"/>
     <mergeCell ref="AM7:AS7"/>
     <mergeCell ref="AT7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BR10:BU10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/assets/excel/2021_5-2-2.xlsx
+++ b/assets/excel/2021_5-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9300CCBF-8E72-4810-AA43-8EB3E5734C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA173682-6DDA-47F5-ACE5-BF71AEF407CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,11 +122,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###\ ###\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="###\ ###\ ###.0"/>
     <numFmt numFmtId="167" formatCode="###\ ##0"/>
+    <numFmt numFmtId="168" formatCode="###\ ###\ ###"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -334,7 +335,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -512,36 +513,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,6 +551,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1668,222 +1675,222 @@
       <c r="BV6" s="9"/>
     </row>
     <row r="7" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="77">
         <v>2020</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="87">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="77">
         <v>2019</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="87">
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="77">
         <v>2018</v>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="77">
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="67">
         <v>2017</v>
       </c>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="77">
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="67">
         <v>2016</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="77">
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="67">
         <v>2015</v>
       </c>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="77">
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="67">
         <v>2014</v>
       </c>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="77">
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="67">
         <v>2013</v>
       </c>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="77">
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="67">
         <v>2011</v>
       </c>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="78"/>
-      <c r="BN7" s="79"/>
-      <c r="BO7" s="80">
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="70">
         <v>2010</v>
       </c>
-      <c r="BP7" s="80"/>
-      <c r="BQ7" s="80"/>
-      <c r="BR7" s="80"/>
-      <c r="BS7" s="80"/>
-      <c r="BT7" s="80"/>
-      <c r="BU7" s="77"/>
+      <c r="BP7" s="70"/>
+      <c r="BQ7" s="70"/>
+      <c r="BR7" s="70"/>
+      <c r="BS7" s="70"/>
+      <c r="BT7" s="70"/>
+      <c r="BU7" s="67"/>
       <c r="BV7" s="11"/>
     </row>
     <row r="8" spans="2:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="73" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="73" t="s">
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="73" t="s">
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="68" t="s">
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69" t="s">
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68" t="s">
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69" t="s">
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="68" t="s">
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="69" t="s">
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="68" t="s">
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="69" t="s">
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="68" t="s">
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="69" t="s">
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="68" t="s">
+      <c r="BE8" s="85"/>
+      <c r="BF8" s="85"/>
+      <c r="BG8" s="86"/>
+      <c r="BH8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="69" t="s">
+      <c r="BI8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="67"/>
-      <c r="BO8" s="72" t="s">
+      <c r="BL8" s="85"/>
+      <c r="BM8" s="85"/>
+      <c r="BN8" s="86"/>
+      <c r="BO8" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="69" t="s">
+      <c r="BP8" s="89"/>
+      <c r="BQ8" s="89"/>
+      <c r="BR8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
+      <c r="BS8" s="85"/>
+      <c r="BT8" s="85"/>
+      <c r="BU8" s="85"/>
       <c r="BV8" s="9"/>
     </row>
     <row r="9" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
@@ -2097,118 +2104,118 @@
       <c r="BV9" s="9"/>
     </row>
     <row r="10" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="73" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76" t="s">
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76" t="s">
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="73"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="76" t="s">
+      <c r="R10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76" t="s">
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="73"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="80"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="68" t="s">
+      <c r="Y10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="68" t="s">
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="69"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="84"/>
       <c r="AE10" s="16"/>
-      <c r="AF10" s="68" t="s">
+      <c r="AF10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68" t="s">
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="69"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="84"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="68" t="s">
+      <c r="AM10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68" t="s">
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="69"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="84"/>
       <c r="AS10" s="17"/>
-      <c r="AT10" s="67" t="s">
+      <c r="AT10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="69" t="s">
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="67" t="s">
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="69" t="s">
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="67" t="s">
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="68"/>
-      <c r="BK10" s="69" t="s">
+      <c r="BI10" s="87"/>
+      <c r="BJ10" s="87"/>
+      <c r="BK10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BL10" s="70"/>
-      <c r="BM10" s="70"/>
-      <c r="BN10" s="70"/>
-      <c r="BO10" s="67" t="s">
+      <c r="BL10" s="85"/>
+      <c r="BM10" s="85"/>
+      <c r="BN10" s="85"/>
+      <c r="BO10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="BP10" s="68"/>
-      <c r="BQ10" s="68"/>
-      <c r="BR10" s="69" t="s">
+      <c r="BP10" s="87"/>
+      <c r="BQ10" s="87"/>
+      <c r="BR10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="BS10" s="70"/>
-      <c r="BT10" s="70"/>
-      <c r="BU10" s="70"/>
+      <c r="BS10" s="85"/>
+      <c r="BT10" s="85"/>
+      <c r="BU10" s="85"/>
       <c r="BV10" s="9"/>
     </row>
     <row r="11" spans="2:74" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2438,13 +2445,13 @@
         <f>VLOOKUP(B12,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Braunschweig  Stadt</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="90">
         <v>11541</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="90">
         <v>6997</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="90">
         <v>4544</v>
       </c>
       <c r="G12" s="21">
@@ -2658,13 +2665,13 @@
         <f>VLOOKUP(B13,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Salzgitter  Stadt</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="90">
         <v>4878</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="90">
         <v>3738</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="90">
         <v>1140</v>
       </c>
       <c r="G13" s="21">
@@ -2878,13 +2885,13 @@
         <f>VLOOKUP(B14,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Wolfsburg  Stadt</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="90">
         <v>10661</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="90">
         <v>7333</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="90">
         <v>3328</v>
       </c>
       <c r="G14" s="21">
@@ -3098,13 +3105,13 @@
         <f>VLOOKUP(B15,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Gifhorn</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="90">
         <v>3257</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="90">
         <v>2169</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="90">
         <v>1088</v>
       </c>
       <c r="G15" s="21">
@@ -3318,13 +3325,13 @@
         <f>VLOOKUP(B16,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Goslar</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="90">
         <v>3225</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="90">
         <v>2090</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="90">
         <v>1135</v>
       </c>
       <c r="G16" s="21">
@@ -3538,13 +3545,13 @@
         <f>VLOOKUP(B17,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Helmstedt</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="90">
         <v>1701</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="90">
         <v>1149</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="90">
         <v>552</v>
       </c>
       <c r="G17" s="21">
@@ -3758,13 +3765,13 @@
         <f>VLOOKUP(B18,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Northeim</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="90">
         <v>3416</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="90">
         <v>2534</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="90">
         <v>882</v>
       </c>
       <c r="G18" s="21">
@@ -3978,13 +3985,13 @@
         <f>VLOOKUP(B19,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Peine</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="90">
         <v>3368</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="90">
         <v>2434</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="90">
         <v>934</v>
       </c>
       <c r="G19" s="21">
@@ -4198,13 +4205,13 @@
         <f>VLOOKUP(B20,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Wolfenbüttel</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="90">
         <v>1586</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="90">
         <v>1010</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="90">
         <v>576</v>
       </c>
       <c r="G20" s="21">
@@ -4418,13 +4425,13 @@
         <f>VLOOKUP(B21,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Göttingen</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="90">
         <v>9833</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="90">
         <v>6074</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="90">
         <v>3759</v>
       </c>
       <c r="G21" s="21">
@@ -4638,13 +4645,13 @@
         <f>VLOOKUP(B22,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Statistische Region Braunschweig</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="91">
         <v>53466</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="91">
         <v>35528</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="91">
         <v>17938</v>
       </c>
       <c r="G22" s="42">
@@ -4857,13 +4864,13 @@
         <f>VLOOKUP(B23,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Hannover  Region</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="90">
         <v>62632</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="90">
         <v>38889</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="90">
         <v>23743</v>
       </c>
       <c r="G23" s="21">
@@ -5077,13 +5084,13 @@
         <f>VLOOKUP(B24,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>dav. Hannover  Lhst.</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="90">
         <v>38815</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="90">
         <v>22979</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="90">
         <v>15836</v>
       </c>
       <c r="G24" s="21">
@@ -5297,13 +5304,13 @@
         <f>VLOOKUP(B25,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>dav. Hannover  Umland</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="90">
         <v>23817</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="90">
         <v>15910</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="90">
         <v>7907</v>
       </c>
       <c r="G25" s="21">
@@ -5517,13 +5524,13 @@
         <f>VLOOKUP(B26,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Diepholz</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="90">
         <v>6594</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="90">
         <v>4544</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="90">
         <v>2050</v>
       </c>
       <c r="G26" s="21">
@@ -5737,13 +5744,13 @@
         <f>VLOOKUP(B27,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Hameln-Pyrmont</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="90">
         <v>4124</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="90">
         <v>2541</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="90">
         <v>1583</v>
       </c>
       <c r="G27" s="21">
@@ -5957,13 +5964,13 @@
         <f>VLOOKUP(B28,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Hildesheim</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="90">
         <v>6461</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="90">
         <v>4211</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="90">
         <v>2250</v>
       </c>
       <c r="G28" s="21">
@@ -6177,13 +6184,13 @@
         <f>VLOOKUP(B29,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Holzminden</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="90">
         <v>1484</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="90">
         <v>998</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="90">
         <v>486</v>
       </c>
       <c r="G29" s="21">
@@ -6397,13 +6404,13 @@
         <f>VLOOKUP(B30,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Nienburg (Weser)</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="90">
         <v>4349</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="90">
         <v>3022</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="90">
         <v>1327</v>
       </c>
       <c r="G30" s="21">
@@ -6617,13 +6624,13 @@
         <f>VLOOKUP(B31,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Schaumburg</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="90">
         <v>3862</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="90">
         <v>2539</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="90">
         <v>1323</v>
       </c>
       <c r="G31" s="21">
@@ -6837,13 +6844,13 @@
         <f>VLOOKUP(B32,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Statistische Region Hannover</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="91">
         <v>89506</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="91">
         <v>56744</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="91">
         <v>32762</v>
       </c>
       <c r="G32" s="42">
@@ -7056,13 +7063,13 @@
         <f>VLOOKUP(B33,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Celle</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="90">
         <v>4092</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="90">
         <v>2631</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="90">
         <v>1461</v>
       </c>
       <c r="G33" s="21">
@@ -7276,13 +7283,13 @@
         <f>VLOOKUP(B34,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Cuxhaven</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="90">
         <v>4388</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="90">
         <v>2924</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="90">
         <v>1464</v>
       </c>
       <c r="G34" s="21">
@@ -7496,13 +7503,13 @@
         <f>VLOOKUP(B35,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Harburg</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="90">
         <v>9737</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="90">
         <v>7051</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="90">
         <v>2686</v>
       </c>
       <c r="G35" s="21">
@@ -7716,13 +7723,13 @@
         <f>VLOOKUP(B36,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Lüchow-Dannenberg</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="90">
         <v>750</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="90">
         <v>456</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="90">
         <v>294</v>
       </c>
       <c r="G36" s="21">
@@ -7936,13 +7943,13 @@
         <f>VLOOKUP(B37,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Lüneburg</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="90">
         <v>3926</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="90">
         <v>2530</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="90">
         <v>1396</v>
       </c>
       <c r="G37" s="21">
@@ -8156,13 +8163,13 @@
         <f>VLOOKUP(B38,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Osterholz</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="90">
         <v>2020</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="90">
         <v>1391</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="90">
         <v>629</v>
       </c>
       <c r="G38" s="21">
@@ -8376,13 +8383,13 @@
         <f>VLOOKUP(B39,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Rotenburg (Wümme)</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="90">
         <v>4630</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="90">
         <v>3136</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="90">
         <v>1494</v>
       </c>
       <c r="G39" s="21">
@@ -8596,13 +8603,13 @@
         <f>VLOOKUP(B40,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Heidekreis</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="90">
         <v>4303</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="90">
         <v>2824</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="90">
         <v>1479</v>
       </c>
       <c r="G40" s="21">
@@ -8816,13 +8823,13 @@
         <f>VLOOKUP(B41,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Stade</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="90">
         <v>5874</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="90">
         <v>4173</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="90">
         <v>1701</v>
       </c>
       <c r="G41" s="21">
@@ -9036,13 +9043,13 @@
         <f>VLOOKUP(B42,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Uelzen</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="90">
         <v>1682</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="90">
         <v>1035</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="90">
         <v>647</v>
       </c>
       <c r="G42" s="21">
@@ -9256,13 +9263,13 @@
         <f>VLOOKUP(B43,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Verden</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="90">
         <v>5629</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="90">
         <v>3944</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="90">
         <v>1685</v>
       </c>
       <c r="G43" s="21">
@@ -9476,13 +9483,13 @@
         <f>VLOOKUP(B44,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Statistische Region Lüneburg</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="91">
         <v>47031</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="91">
         <v>32095</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="91">
         <v>14936</v>
       </c>
       <c r="G44" s="42">
@@ -9695,13 +9702,13 @@
         <f>VLOOKUP(B45,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Delmenhorst  Stadt</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="90">
         <v>1864</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="90">
         <v>1219</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="90">
         <v>645</v>
       </c>
       <c r="G45" s="21">
@@ -9915,13 +9922,13 @@
         <f>VLOOKUP(B46,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Emden  Stadt</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="90">
         <v>1823</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="90">
         <v>1350</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="90">
         <v>473</v>
       </c>
       <c r="G46" s="21">
@@ -10135,13 +10142,13 @@
         <f>VLOOKUP(B47,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Oldenburg(Oldb)  Stadt</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="90">
         <v>6162</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="90">
         <v>3917</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="90">
         <v>2245</v>
       </c>
       <c r="G47" s="21">
@@ -10355,13 +10362,13 @@
         <f>VLOOKUP(B48,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Osnabrück  Stadt</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="90">
         <v>8847</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="90">
         <v>4934</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="90">
         <v>3913</v>
       </c>
       <c r="G48" s="21">
@@ -10575,13 +10582,13 @@
         <f>VLOOKUP(B49,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Wilhelmshaven  Stadt</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="90">
         <v>1855</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="90">
         <v>1310</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="90">
         <v>545</v>
       </c>
       <c r="G49" s="21">
@@ -10795,13 +10802,13 @@
         <f>VLOOKUP(B50,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Ammerland</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="90">
         <v>4153</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="90">
         <v>2852</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="90">
         <v>1301</v>
       </c>
       <c r="G50" s="21">
@@ -11015,13 +11022,13 @@
         <f>VLOOKUP(B51,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Aurich</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="90">
         <v>4164</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="90">
         <v>2658</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="90">
         <v>1506</v>
       </c>
       <c r="G51" s="21">
@@ -11235,13 +11242,13 @@
         <f>VLOOKUP(B52,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Cloppenburg</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="90">
         <v>10632</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="90">
         <v>7314</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="90">
         <v>3318</v>
       </c>
       <c r="G52" s="21">
@@ -11455,13 +11462,13 @@
         <f>VLOOKUP(B53,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Emsland</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="90">
         <v>14967</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="90">
         <v>10881</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="90">
         <v>4086</v>
       </c>
       <c r="G53" s="21">
@@ -11675,13 +11682,13 @@
         <f>VLOOKUP(B54,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Friesland</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="90">
         <v>1524</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="90">
         <v>982</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="90">
         <v>542</v>
       </c>
       <c r="G54" s="21">
@@ -11895,13 +11902,13 @@
         <f>VLOOKUP(B55,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Grafschaft Bentheim</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="90">
         <v>5790</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="90">
         <v>3984</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="90">
         <v>1806</v>
       </c>
       <c r="G55" s="21">
@@ -12115,13 +12122,13 @@
         <f>VLOOKUP(B56,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Leer</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="90">
         <v>3766</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="90">
         <v>2684</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="90">
         <v>1082</v>
       </c>
       <c r="G56" s="21">
@@ -12335,13 +12342,13 @@
         <f>VLOOKUP(B57,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Oldenburg</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="90">
         <v>3842</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="90">
         <v>2708</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="90">
         <v>1134</v>
       </c>
       <c r="G57" s="21">
@@ -12555,13 +12562,13 @@
         <f>VLOOKUP(B58,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Osnabrück</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="90">
         <v>17707</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="90">
         <v>11697</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="90">
         <v>6010</v>
       </c>
       <c r="G58" s="21">
@@ -12775,13 +12782,13 @@
         <f>VLOOKUP(B59,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Vechta</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="90">
         <v>11205</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="90">
         <v>7462</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="90">
         <v>3743</v>
       </c>
       <c r="G59" s="21">
@@ -12995,13 +13002,13 @@
         <f>VLOOKUP(B60,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Wesermarsch</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="90">
         <v>2505</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="90">
         <v>1989</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="90">
         <v>516</v>
       </c>
       <c r="G60" s="21">
@@ -13215,13 +13222,13 @@
         <f>VLOOKUP(B61,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Wittmund</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="90">
         <v>924</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="90">
         <v>546</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="90">
         <v>378</v>
       </c>
       <c r="G61" s="21">
@@ -13435,13 +13442,13 @@
         <f>VLOOKUP(B62,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Statistische Region Weser-Ems</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D62" s="91">
         <v>101730</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="91">
         <v>68487</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="91">
         <v>33243</v>
       </c>
       <c r="G62" s="42">
@@ -13654,13 +13661,13 @@
         <f>VLOOKUP(B63,[1]Tabelle1!$A$1:$B$68,2,FALSE)</f>
         <v>Niedersachsen</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="91">
         <v>291733</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="91">
         <v>192854</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="91">
         <v>93737</v>
       </c>
       <c r="G63" s="42">
@@ -13941,20 +13948,20 @@
       <c r="BV64" s="55"/>
     </row>
     <row r="65" spans="3:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
       <c r="O65" s="66"/>
       <c r="P65" s="66"/>
       <c r="Q65" s="66"/>
@@ -14174,6 +14181,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C65:N65"/>
+    <mergeCell ref="BH8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BQ8"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AM10:AO10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="BD10:BG10"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="BR8:BU8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BG8"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="BR10:BU10"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
     <mergeCell ref="BH7:BN7"/>
     <mergeCell ref="BO7:BU7"/>
     <mergeCell ref="B7:B10"/>
@@ -14190,43 +14234,6 @@
     <mergeCell ref="AF7:AL7"/>
     <mergeCell ref="AM7:AS7"/>
     <mergeCell ref="AT7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="BR8:BU8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BG8"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="C65:N65"/>
-    <mergeCell ref="BH8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BQ8"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AM10:AO10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BR10:BU10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BD10:BG10"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
